--- a/5-solve-a-problem/find_spot.xlsx
+++ b/5-solve-a-problem/find_spot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmelgarejo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44F0CC-975E-9445-BC75-3C82AA3B33FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E96436-C198-EB4B-A1E0-8298AE235D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29740" windowHeight="13360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30940" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FindParking - Magic button" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>GIVEN</t>
   </si>
@@ -68,9 +68,6 @@
     <t>List of free parking spots</t>
   </si>
   <si>
-    <t>[name, description, lat;long, price, size, images]</t>
-  </si>
-  <si>
     <t>return a list of free parking spots 1km radius</t>
   </si>
   <si>
@@ -80,18 +77,12 @@
     <t>-25.3390268,-57.4966736</t>
   </si>
   <si>
-    <t>user position(lat &amp; long)</t>
-  </si>
-  <si>
     <t>[Parque 14 y Medio, shopping mall, -25.3390268,-57.4966736, 5, 12]</t>
   </si>
   <si>
     <t>Radius</t>
   </si>
   <si>
-    <t>[Parque 14 y Medio, shopping mall, -25.3390268,-57.4966736, 5, 12], [Shopping San Lorenzo, shopping mall,-25.3369987,-57.4987932, 1, 12]</t>
-  </si>
-  <si>
     <t>user clicks the magic button and enters a given radius to search</t>
   </si>
   <si>
@@ -111,13 +102,25 @@
   </si>
   <si>
     <t>An error message is displayed informing the user that there are no spots available</t>
+  </si>
+  <si>
+    <t>Location List</t>
+  </si>
+  <si>
+    <t>[Parque 14 y Medio, shopping mall, -25.3390268,-57.4966736, 5, 12]
+[Shopping San Lorenzo, shopping mall,-25.3369987,-57.4987932, 1, 12]
+[Desert parking, desert hall parking lot,-27.3369987,-57.4987932, 1, 12]</t>
+  </si>
+  <si>
+    <t>[Parque 14 y Medio, shopping mall, -25.3390268,-57.4966736, 5, 12]
+[Shopping San Lorenzo, shopping mall,-25.3369987,-57.4987932, 1, 12]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,12 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,16 +463,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
@@ -474,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -482,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -506,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -533,10 +547,14 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
@@ -550,20 +568,18 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
+    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -574,42 +590,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="10" width="18.1640625" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="59.5" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,69 +634,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -692,8 +718,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
   </sheetData>
@@ -706,9 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -725,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -733,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -757,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -781,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -792,13 +817,13 @@
     </row>
     <row r="12" spans="1:6" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4"/>
     </row>
